--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.3083</v>
+        <v>-12.26599999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.197899999999997</v>
+        <v>6.569899999999998</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.3446</v>
+        <v>-11.35130000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.117099999999996</v>
+        <v>-7.279399999999999</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.3392</v>
+        <v>-13.57160000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.056299999999993</v>
+        <v>6.253299999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.738800000000001</v>
+        <v>8.979799999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.153</v>
+        <v>-12.2416</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.1597</v>
+        <v>-13.0495</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.6509</v>
+        <v>-12.7993</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -810,13 +810,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.26110000000001</v>
+        <v>6.436900000000009</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.226399999999996</v>
+        <v>-7.773699999999999</v>
       </c>
     </row>
     <row r="28">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.947800000000004</v>
+        <v>-7.1842</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.797499999999989</v>
+        <v>-7.05309999999999</v>
       </c>
     </row>
     <row r="33">
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.14970000000001</v>
+        <v>-12.30340000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -922,10 +922,10 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.355100000000007</v>
+        <v>8.480200000000002</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.83830000000001</v>
+        <v>-13.39620000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.3529</v>
+        <v>-7.5297</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.137799999999995</v>
+        <v>-7.242300000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.492899999999993</v>
+        <v>-8.939799999999993</v>
       </c>
     </row>
     <row r="42">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.047999999999994</v>
+        <v>-7.155499999999996</v>
       </c>
     </row>
     <row r="46">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.92789999999999</v>
+        <v>-10.73349999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.92089999999999</v>
+        <v>-13.94029999999999</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.543900000000002</v>
+        <v>-8.561800000000003</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1153</v>
+        <v>-11.1466</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.291199999999995</v>
+        <v>-8.493599999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.083299999999991</v>
+        <v>-7.29859999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.847</v>
+        <v>-10.7851</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.8701</v>
+        <v>-10.6071</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.685199999999996</v>
+        <v>5.462599999999992</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.182500000000001</v>
+        <v>5.529199999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>10.18130000000001</v>
+        <v>10.24110000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.5704</v>
+        <v>-13.6074</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.67060000000001</v>
+        <v>-13.26440000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1580,13 +1580,13 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.099099999999996</v>
+        <v>5.1068</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.402900000000004</v>
+        <v>-8.349000000000009</v>
       </c>
     </row>
     <row r="83">
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>6.112899999999997</v>
+        <v>5.5549</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1734,13 +1734,13 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>4.869899999999994</v>
+        <v>4.863899999999996</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.136499999999992</v>
+        <v>-7.173299999999994</v>
       </c>
     </row>
     <row r="94">
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.14599999999999</v>
+        <v>-13.2422</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.087699999999995</v>
+        <v>-7.503299999999997</v>
       </c>
     </row>
     <row r="103">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-12.3136</v>
+        <v>-12.81090000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.607699999999999</v>
+        <v>-7.706300000000002</v>
       </c>
     </row>
   </sheetData>
